--- a/results/Enrichment_various_databases/PHH_ctrl_vs_HBV_downregulated_Analysis.xlsx
+++ b/results/Enrichment_various_databases/PHH_ctrl_vs_HBV_downregulated_Analysis.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ales\PHH\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ales\PHH\results\Enrichment_various_databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5549D3F6-FC95-4751-AA05-47A7B1747778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE94AD-BE3D-4C6E-B7C3-CF6F58A80E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{87D3AD9E-8173-423F-A862-88C7B702C43E}"/>
   </bookViews>
   <sheets>
     <sheet name="downregulated_genes_ENTREZ" sheetId="2" r:id="rId1"/>
-    <sheet name="downregulated_genes_analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="analysis" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">downregulated_genes_analysis!$A$1:$K$165</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">analysis!$A$1:$K$165</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">downregulated_genes_ENTREZ!$A$1:$C$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1718,23 +1718,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1753,10 +1745,10 @@
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -1835,9 +1827,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757FCD73-D8A1-4AEF-91D6-B63B60158117}" name="downregulated_genes_ENTREZ" displayName="downregulated_genes_ENTREZ" ref="A1:C74" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C74" xr:uid="{757FCD73-D8A1-4AEF-91D6-B63B60158117}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{52249075-A251-4912-BE05-284DA0B20653}" uniqueName="2" name="Genes" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1CD36E51-0223-40CB-A29C-11BC47E0350A}" uniqueName="3" name="ProtDesc" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{102E0579-3DE9-4722-9B22-7F63280B7548}" uniqueName="4" name="ENTREZID" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{52249075-A251-4912-BE05-284DA0B20653}" uniqueName="2" name="Genes" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1CD36E51-0223-40CB-A29C-11BC47E0350A}" uniqueName="3" name="ProtDesc" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{102E0579-3DE9-4722-9B22-7F63280B7548}" uniqueName="4" name="ENTREZID" queryTableFieldId="4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1850,17 +1842,17 @@
     <sortCondition ref="A1:A165"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{23C49815-2560-49F4-8013-AFEFB348BD34}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4428D918-0A55-4E39-9342-AF0BEADDC426}" uniqueName="2" name="Term" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{23C49815-2560-49F4-8013-AFEFB348BD34}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4428D918-0A55-4E39-9342-AF0BEADDC426}" uniqueName="2" name="Term" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{CF886331-9818-4E44-9BB7-D9F896CCFBFA}" uniqueName="3" name="Count" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E2FD3067-0293-4F1B-BB3E-5C5F592BAF6C}" uniqueName="4" name="%" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E7FD8650-8397-4E9C-A6DC-6F71511957B6}" uniqueName="5" name="PValue" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E2FD3067-0293-4F1B-BB3E-5C5F592BAF6C}" uniqueName="4" name="%" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E7FD8650-8397-4E9C-A6DC-6F71511957B6}" uniqueName="5" name="PValue" queryTableFieldId="5" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{93AC29A5-E964-433F-809D-7BF75FBCDBFF}" uniqueName="6" name="Genes" queryTableFieldId="6" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{1C6195B5-20D1-4231-A3E3-240649080A95}" uniqueName="7" name="List Total" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{BFD2C8B6-B15F-4A14-B7FC-65DF057EF8F5}" uniqueName="8" name="Pop Hits" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{7D676B77-AE2F-4C9A-B595-8F9EDFAD94D4}" uniqueName="9" name="Pop Total" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{F6F711CD-DA7D-4725-8CB2-06BA4421C851}" uniqueName="10" name="Fold Enrichment" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{C0E32E31-0B75-423D-94F5-FEF2C1F015F2}" uniqueName="13" name="FDR" queryTableFieldId="13" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F6F711CD-DA7D-4725-8CB2-06BA4421C851}" uniqueName="10" name="Fold Enrichment" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C0E32E31-0B75-423D-94F5-FEF2C1F015F2}" uniqueName="13" name="FDR" queryTableFieldId="13" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2208,838 +2200,838 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>214</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>220</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>221</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3055,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D88BD5-73AC-44DE-A8DA-3F29A06D58DD}">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3064,14 +3056,14 @@
     <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.1328125" customWidth="1"/>
     <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53125" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.06640625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -3084,10 +3076,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F1" t="s">
@@ -3102,30 +3094,30 @@
       <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>245</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1.61039933320748E-6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>246</v>
       </c>
       <c r="G2">
@@ -3137,30 +3129,30 @@
       <c r="I2">
         <v>19256</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>56.502347417840298</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>9.9200598925581096E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>247</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.27959572162429E-5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>248</v>
       </c>
       <c r="G3">
@@ -3172,30 +3164,30 @@
       <c r="I3">
         <v>19256</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>19.6056338028169</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>2.7219272180418999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>249</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.3256139048905301E-5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>250</v>
       </c>
       <c r="G4">
@@ -3207,30 +3199,30 @@
       <c r="I4">
         <v>19256</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>33.901408450704203</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>2.7219272180418999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>281</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1.5125518521809599E-3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>282</v>
       </c>
       <c r="G5">
@@ -3242,30 +3234,30 @@
       <c r="I5">
         <v>19256</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>50.852112676056301</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.232932985235868</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>311</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5.07155047509279E-3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>312</v>
       </c>
       <c r="G6">
@@ -3277,30 +3269,30 @@
       <c r="I6">
         <v>19256</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>7.1371386212008803</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.62481501853143195</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>315</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>6.2763528004930302E-3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>297</v>
       </c>
       <c r="G7">
@@ -3312,30 +3304,30 @@
       <c r="I7">
         <v>19256</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>10.532476411869199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.631238041135748</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>328</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>7.1731595583607701E-3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>329</v>
       </c>
       <c r="G8">
@@ -3347,30 +3339,30 @@
       <c r="I8">
         <v>19256</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>23.2466800804828</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.631238041135748</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>333</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1.0866657358840799E-2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>334</v>
       </c>
       <c r="G9">
@@ -3382,30 +3374,30 @@
       <c r="I9">
         <v>19256</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>180.80751173708899</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>0.74914278389760303</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>335</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1.13564845906198E-2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>336</v>
       </c>
       <c r="G10">
@@ -3417,30 +3409,30 @@
       <c r="I10">
         <v>19256</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>5.65023474178403</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>0.74914278389760303</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>337</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.21614088295065E-2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>338</v>
       </c>
       <c r="G11">
@@ -3452,30 +3444,30 @@
       <c r="I11">
         <v>19256</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>17.687691365584801</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.74914278389760303</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>342</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.4260448921312801E-2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>343</v>
       </c>
       <c r="G12">
@@ -3487,30 +3479,30 @@
       <c r="I12">
         <v>19256</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>16.272676056338</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.79858513959352095</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>357</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1.78245816641255E-2</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>358</v>
       </c>
       <c r="G13">
@@ -3522,30 +3514,30 @@
       <c r="I13">
         <v>19256</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>3.90232039720336</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.91499519209178004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>365</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2.1616899306762801E-2</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>366</v>
       </c>
       <c r="G14">
@@ -3557,30 +3549,30 @@
       <c r="I14">
         <v>19256</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>90.403755868544593</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>391</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2.87196596247963E-2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>392</v>
       </c>
       <c r="G15">
@@ -3592,30 +3584,30 @@
       <c r="I15">
         <v>19256</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>67.802816901408406</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>399</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>3.2251955127223397E-2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>400</v>
       </c>
       <c r="G16">
@@ -3627,30 +3619,30 @@
       <c r="I16">
         <v>19256</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>60.269170579029698</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>401</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>3.2251955127223397E-2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>334</v>
       </c>
       <c r="G17">
@@ -3662,30 +3654,30 @@
       <c r="I17">
         <v>19256</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>60.269170579029698</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>402</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3.2251955127223397E-2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>334</v>
       </c>
       <c r="G18">
@@ -3697,30 +3689,30 @@
       <c r="I18">
         <v>19256</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>60.269170579029698</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>403</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>3.2251955127223397E-2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>404</v>
       </c>
       <c r="G19">
@@ -3732,30 +3724,30 @@
       <c r="I19">
         <v>19256</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>60.269170579029698</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>405</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>3.3251077607777298E-2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>406</v>
       </c>
       <c r="G20">
@@ -3767,30 +3759,30 @@
       <c r="I20">
         <v>19256</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>5.6209589141064003</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>409</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>3.4314313108493102E-2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>410</v>
       </c>
       <c r="G21">
@@ -3802,30 +3794,30 @@
       <c r="I21">
         <v>19256</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>10.1704225352112</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>411</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>3.4314313108493102E-2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>412</v>
       </c>
       <c r="G22">
@@ -3837,30 +3829,30 @@
       <c r="I22">
         <v>19256</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>10.1704225352112</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>413</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>3.5771587441778198E-2</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>414</v>
       </c>
       <c r="G23">
@@ -3872,30 +3864,30 @@
       <c r="I23">
         <v>19256</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>54.242253521126699</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>415</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>13.698630136986299</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>3.6755678646816503E-2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>416</v>
       </c>
       <c r="G24">
@@ -3907,30 +3899,30 @@
       <c r="I24">
         <v>19256</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>2.16795577622409</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>0.984412958540826</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>419</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>3.9278601306493403E-2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>334</v>
       </c>
       <c r="G25">
@@ -3942,30 +3934,30 @@
       <c r="I25">
         <v>19256</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>49.3111395646606</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>0.98492603327228001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>420</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>3.9972647454232103E-2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>421</v>
       </c>
       <c r="G26">
@@ -3977,30 +3969,30 @@
       <c r="I26">
         <v>19256</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>9.3521126760563291</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0.98492603327228001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>424</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>4.2971143280964498E-2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>425</v>
       </c>
       <c r="G27">
@@ -4012,30 +4004,30 @@
       <c r="I27">
         <v>19256</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>3.0819462227912902</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>428</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>4.6254951889309698E-2</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>429</v>
       </c>
       <c r="G28">
@@ -4047,30 +4039,30 @@
       <c r="I28">
         <v>19256</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>41.724810400866701</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>442</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>4.9724377309799998E-2</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>414</v>
       </c>
       <c r="G29">
@@ -4082,30 +4074,30 @@
       <c r="I29">
         <v>19256</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>38.744466800804801</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>443</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4.9724377309799998E-2</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>414</v>
       </c>
       <c r="G30">
@@ -4117,30 +4109,30 @@
       <c r="I30">
         <v>19256</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>38.744466800804801</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>444</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>4.9724377309799998E-2</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>317</v>
       </c>
       <c r="G31">
@@ -4152,30 +4144,30 @@
       <c r="I31">
         <v>19256</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>38.744466800804801</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>445</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>4.9724377309799998E-2</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>446</v>
       </c>
       <c r="G32">
@@ -4187,30 +4179,30 @@
       <c r="I32">
         <v>19256</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>38.744466800804801</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0.98807149751086498</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>447</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>5.19140317511496E-2</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>448</v>
       </c>
       <c r="G33">
@@ -4222,30 +4214,30 @@
       <c r="I33">
         <v>19256</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>4.69629900615816</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0.99934511120962999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>454</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>5.4100863739876402E-2</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>455</v>
       </c>
       <c r="G34">
@@ -4257,30 +4249,30 @@
       <c r="I34">
         <v>19256</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>7.8993573089019504</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>464</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>5.8829590856195803E-2</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>465</v>
       </c>
       <c r="G35">
@@ -4292,30 +4284,30 @@
       <c r="I35">
         <v>19256</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>7.5336463223787096</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>468</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>6.0058183095530598E-2</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>317</v>
       </c>
       <c r="G36">
@@ -4327,30 +4319,30 @@
       <c r="I36">
         <v>19256</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>31.907207953603901</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>469</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>6.0058183095530598E-2</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>414</v>
       </c>
       <c r="G37">
@@ -4362,30 +4354,30 @@
       <c r="I37">
         <v>19256</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>31.907207953603901</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>483</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>6.7046252734893702E-2</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>484</v>
       </c>
       <c r="G38">
@@ -4397,30 +4389,30 @@
       <c r="I38">
         <v>19256</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>4.2211870444456601</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>493</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>7.7035577586730103E-2</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>494</v>
       </c>
       <c r="G39">
@@ -4432,30 +4424,30 @@
       <c r="I39">
         <v>19256</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>24.6555697823303</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>500</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>8.0394603768832104E-2</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>414</v>
       </c>
       <c r="G40">
@@ -4467,30 +4459,30 @@
       <c r="I40">
         <v>19256</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>23.583588487446399</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>507</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>8.3741579160517901E-2</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>508</v>
       </c>
       <c r="G41">
@@ -4502,30 +4494,30 @@
       <c r="I41">
         <v>19256</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>22.600938967136099</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>514</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>8.7076546374418404E-2</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>515</v>
       </c>
       <c r="G42">
@@ -4537,30 +4529,30 @@
       <c r="I42">
         <v>19256</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>21.696901408450699</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>518</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>8.8779438686777998E-2</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>519</v>
       </c>
       <c r="G43">
@@ -4572,30 +4564,30 @@
       <c r="I43">
         <v>19256</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>5.9389328672766499</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>244</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>520</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>9.0399547865262095E-2</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>521</v>
       </c>
       <c r="G44">
@@ -4607,30 +4599,30 @@
       <c r="I44">
         <v>19256</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>20.862405200433301</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>538</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>9.88336639720271E-2</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>539</v>
       </c>
       <c r="G45">
@@ -4642,30 +4634,30 @@
       <c r="I45">
         <v>19256</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>5.5728342658691803</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>240</v>
       </c>
       <c r="C46">
         <v>28</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>38.356164383561598</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>3.16219383157858E-9</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>241</v>
       </c>
       <c r="G46">
@@ -4677,30 +4669,30 @@
       <c r="I46">
         <v>20521</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>3.51230187110695</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>4.5535591174731601E-7</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>242</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>15.068493150684899</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>1.18142101766097E-6</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>243</v>
       </c>
       <c r="G47">
@@ -4712,30 +4704,30 @@
       <c r="I47">
         <v>20521</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>7.8085996955859898</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>8.5062313271590506E-5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>251</v>
       </c>
       <c r="C48">
         <v>37</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>50.684931506849303</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>3.3609761548516701E-5</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>252</v>
       </c>
       <c r="G48">
@@ -4747,30 +4739,30 @@
       <c r="I48">
         <v>20521</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>1.85899102672395</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>1.40324970065816E-3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>253</v>
       </c>
       <c r="C49">
         <v>21</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>28.7671232876712</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>3.89791583516156E-5</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>254</v>
       </c>
       <c r="G49">
@@ -4782,30 +4774,30 @@
       <c r="I49">
         <v>20521</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>2.7179103912813098</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>1.40324970065816E-3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>255</v>
       </c>
       <c r="C50">
         <v>11</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>15.068493150684899</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>8.0238051869280599E-5</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>256</v>
       </c>
       <c r="G50">
@@ -4817,30 +4809,30 @@
       <c r="I50">
         <v>20521</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>4.80156130349698</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>2.17165094134776E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
       <c r="C51">
         <v>19</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>26.027397260273901</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>9.0485455889489894E-5</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>258</v>
       </c>
       <c r="G51">
@@ -4852,30 +4844,30 @@
       <c r="I51">
         <v>20521</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>2.7659669558678499</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>2.17165094134776E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>239</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>265</v>
       </c>
       <c r="C52">
         <v>13</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>17.808219178082101</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>3.9624944068740502E-4</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>266</v>
       </c>
       <c r="G52">
@@ -4887,30 +4879,30 @@
       <c r="I52">
         <v>20521</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>3.33737411646963</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>8.1514170655694902E-3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>279</v>
       </c>
       <c r="C53">
         <v>32</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>43.835616438356098</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>1.4897589838921001E-3</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>280</v>
       </c>
       <c r="G53">
@@ -4922,30 +4914,30 @@
       <c r="I53">
         <v>20521</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>1.66737847067934</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>2.6815661710057798E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>302</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>9.5890410958904102</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>3.8943490404506399E-3</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>303</v>
       </c>
       <c r="G54">
@@ -4957,30 +4949,30 @@
       <c r="I54">
         <v>20521</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>4.5975867366534304</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>6.23095846472103E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>348</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>1.5531805652725E-2</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>349</v>
       </c>
       <c r="G55">
@@ -4992,30 +4984,30 @@
       <c r="I55">
         <v>20521</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>7.5465661487542501</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>0.22365800139924</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>239</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>361</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>1.9442428453137799E-2</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>362</v>
       </c>
       <c r="G56">
@@ -5027,30 +5019,30 @@
       <c r="I56">
         <v>20521</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>13.8250617561194</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>0.24074022881368501</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>363</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2.00616857344737E-2</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>364</v>
       </c>
       <c r="G57">
@@ -5062,30 +5054,30 @@
       <c r="I57">
         <v>20521</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>4.7645693057812801</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>0.24074022881368501</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>373</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>2.3555398101633599E-2</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>374</v>
       </c>
       <c r="G58">
@@ -5097,30 +5089,30 @@
       <c r="I58">
         <v>20521</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>4.5340256296950896</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>0.26092133281809599</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>417</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>3.71928133045311E-2</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>418</v>
       </c>
       <c r="G59">
@@ -5132,30 +5124,30 @@
       <c r="I59">
         <v>20521</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>5.3800878285377198</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>0.38255465113232001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>430</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>4.6494288921000798E-2</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>431</v>
       </c>
       <c r="G60">
@@ -5167,30 +5159,30 @@
       <c r="I60">
         <v>20521</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>8.6053955828906901</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>0.40684759819597699</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>437</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>4.80306192314695E-2</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>414</v>
       </c>
       <c r="G61">
@@ -5202,30 +5194,30 @@
       <c r="I61">
         <v>20521</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>40.158512720156502</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>0.40684759819597699</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>438</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>4.80306192314695E-2</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>439</v>
       </c>
       <c r="G62">
@@ -5237,30 +5229,30 @@
       <c r="I62">
         <v>20521</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>40.158512720156502</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <v>0.40684759819597699</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>458</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>5.47768555732931E-2</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>459</v>
       </c>
       <c r="G63">
@@ -5272,30 +5264,30 @@
       <c r="I63">
         <v>20521</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>3.45343475480461</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>0.43821484458634502</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>474</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>6.1330785243168602E-2</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>475</v>
       </c>
       <c r="G64">
@@ -5307,30 +5299,30 @@
       <c r="I64">
         <v>20521</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>31.234398782343899</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>0.45140903915480102</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>477</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>6.2695699882611297E-2</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>478</v>
       </c>
       <c r="G65">
@@ -5342,30 +5334,30 @@
       <c r="I65">
         <v>20521</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>7.2700755786490303</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>0.45140903915480102</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>485</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>6.7911983982038002E-2</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>317</v>
       </c>
       <c r="G66">
@@ -5377,30 +5369,30 @@
       <c r="I66">
         <v>20521</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>28.110958904109498</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>0.46568217587683203</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>496</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>7.9314668590829598E-2</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>497</v>
       </c>
       <c r="G67">
@@ -5412,30 +5404,30 @@
       <c r="I67">
         <v>20521</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>3.9316026439314098</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>0.50499942941061804</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>239</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>501</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>8.19049439098785E-2</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>502</v>
       </c>
       <c r="G68">
@@ -5447,30 +5439,30 @@
       <c r="I68">
         <v>20521</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>3.87737364194615</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>0.50499942941061804</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>511</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>8.4166571568436405E-2</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>317</v>
       </c>
       <c r="G69">
@@ -5482,30 +5474,30 @@
       <c r="I69">
         <v>20521</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>22.488767123287602</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>0.50499942941061804</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>527</v>
       </c>
       <c r="C70">
         <v>6</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>9.4257028679935004E-2</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>528</v>
       </c>
       <c r="G70">
@@ -5517,30 +5509,30 @@
       <c r="I70">
         <v>20521</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>2.44797900471201</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>0.54292048519642599</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>540</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>9.9660106649364699E-2</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>541</v>
       </c>
       <c r="G71">
@@ -5552,30 +5544,30 @@
       <c r="I71">
         <v>20521</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <v>5.5482155731795197</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>0.55196366759648097</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>296</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>3.53935197590744E-3</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>297</v>
       </c>
       <c r="G72">
@@ -5587,30 +5579,30 @@
       <c r="I72">
         <v>18883</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>12.933561643835599</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>0.269402938964664</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>298</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>3.7480392800961098E-3</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>299</v>
       </c>
       <c r="G73">
@@ -5622,30 +5614,30 @@
       <c r="I73">
         <v>18883</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <v>32.333904109589</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <v>0.269402938964664</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>300</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>3.7944075910516101E-3</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>301</v>
       </c>
       <c r="G74">
@@ -5657,30 +5649,30 @@
       <c r="I74">
         <v>18883</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>12.6181089208152</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <v>0.269402938964664</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>330</v>
       </c>
       <c r="C75">
         <v>13</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>17.808219178082101</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>9.47587311689254E-3</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>331</v>
       </c>
       <c r="G75">
@@ -5692,30 +5684,30 @@
       <c r="I75">
         <v>18883</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <v>2.2798142558625401</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>0.50459024347452797</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>359</v>
       </c>
       <c r="C76">
         <v>58</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>79.452054794520507</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>1.8585671490570901E-2</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>360</v>
       </c>
       <c r="G76">
@@ -5727,30 +5719,30 @@
       <c r="I76">
         <v>18883</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <v>1.1806824196780701</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <v>0.79174960549832196</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>295</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>371</v>
       </c>
       <c r="C77">
         <v>8</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>10.958904109589</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>2.33515709137329E-2</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" t="s">
         <v>372</v>
       </c>
       <c r="G77">
@@ -5762,30 +5754,30 @@
       <c r="I77">
         <v>18883</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>2.7739542399647399</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <v>0.80004867427832904</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>295</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>397</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>3.0868452878127599E-2</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" t="s">
         <v>398</v>
       </c>
       <c r="G78">
@@ -5797,30 +5789,30 @@
       <c r="I78">
         <v>18883</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>10.7779680365296</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <v>0.80004867427832904</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>295</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>407</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>3.3804873561056097E-2</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" t="s">
         <v>334</v>
       </c>
       <c r="G79">
@@ -5832,30 +5824,30 @@
       <c r="I79">
         <v>18883</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <v>57.482496194824897</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <v>0.80004867427832904</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>295</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>408</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>3.3804873561056097E-2</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" t="s">
         <v>334</v>
       </c>
       <c r="G80">
@@ -5867,30 +5859,30 @@
       <c r="I80">
         <v>18883</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>57.482496194824897</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>0.80004867427832904</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>295</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>436</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>4.7865902220161502E-2</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" t="s">
         <v>380</v>
       </c>
       <c r="G81">
@@ -5902,30 +5894,30 @@
       <c r="I81">
         <v>18883</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <v>4.8576757347739399</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>295</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>488</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>6.9225372883935099E-2</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" t="s">
         <v>489</v>
       </c>
       <c r="G82">
@@ -5937,30 +5929,30 @@
       <c r="I82">
         <v>18883</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>6.8673778639835099</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>325</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>326</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>6.9772299539008599E-3</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" t="s">
         <v>327</v>
       </c>
       <c r="G83">
@@ -5972,30 +5964,30 @@
       <c r="I83">
         <v>20603</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>282.23287671232799</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>325</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>332</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>1.04478206751166E-2</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" t="s">
         <v>327</v>
       </c>
       <c r="G84">
@@ -6007,30 +5999,30 @@
       <c r="I84">
         <v>20603</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>188.15525114155199</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>325</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>339</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>1.39064496520669E-2</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" t="s">
         <v>317</v>
       </c>
       <c r="G85">
@@ -6042,30 +6034,30 @@
       <c r="I85">
         <v>20603</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>141.116438356164</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>325</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>466</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>5.8837884315921997E-2</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>467</v>
       </c>
       <c r="G86">
@@ -6077,30 +6069,30 @@
       <c r="I86">
         <v>20603</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <v>4.4621798689696197</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>325</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>509</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>8.3845293157469497E-2</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>510</v>
       </c>
       <c r="G87">
@@ -6112,30 +6104,30 @@
       <c r="I87">
         <v>20603</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <v>22.578630136986298</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>325</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>526</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>9.3428701776864104E-2</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" t="s">
         <v>510</v>
       </c>
       <c r="G88">
@@ -6147,30 +6139,30 @@
       <c r="I88">
         <v>20603</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <v>20.159491193737701</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>325</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>531</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>9.5740080328870394E-2</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" t="s">
         <v>532</v>
       </c>
       <c r="G89">
@@ -6182,30 +6174,30 @@
       <c r="I89">
         <v>20603</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <v>5.6825411418589598</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>449</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>450</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>5.2673819448343803E-2</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>451</v>
       </c>
       <c r="G90">
@@ -6217,30 +6209,30 @@
       <c r="I90">
         <v>8662</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <v>4.5679630850362498</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>449</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>460</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>5.6756472321221801E-2</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>461</v>
       </c>
       <c r="G91">
@@ -6252,30 +6244,30 @@
       <c r="I91">
         <v>8662</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <v>7.5518744551002603</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>449</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>479</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>6.3378162432825902E-2</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" t="s">
         <v>378</v>
       </c>
       <c r="G92">
@@ -6287,30 +6279,30 @@
       <c r="I92">
         <v>8662</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <v>7.0941850941850904</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>522</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>9.1455340222911394E-2</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" t="s">
         <v>506</v>
       </c>
       <c r="G93">
@@ -6322,30 +6314,30 @@
       <c r="I93">
         <v>8662</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <v>20.357226792009399</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>352</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>353</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>1.69227178522449E-2</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" t="s">
         <v>317</v>
       </c>
       <c r="G94">
@@ -6357,30 +6349,30 @@
       <c r="I94">
         <v>1940</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <v>107.777777777777</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>0.18614989637469401</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>267</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>268</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>13.698630136986299</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>4.1269277160635898E-4</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" t="s">
         <v>269</v>
       </c>
       <c r="G95">
@@ -6392,30 +6384,30 @@
       <c r="I95">
         <v>11044</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <v>4.2608024691358004</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="1">
         <v>0.111427048333717</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>267</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>290</v>
       </c>
       <c r="C96">
         <v>11</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>15.068493150684899</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>2.2880668173598001E-3</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" t="s">
         <v>291</v>
       </c>
       <c r="G96">
@@ -6427,30 +6419,30 @@
       <c r="I96">
         <v>11044</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <v>3.0608213655832701</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="1">
         <v>0.30888902034357302</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>267</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>304</v>
       </c>
       <c r="C97">
         <v>13</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>17.808219178082101</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>3.9867769191248596E-3</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" t="s">
         <v>305</v>
       </c>
       <c r="G97">
@@ -6462,30 +6454,30 @@
       <c r="I97">
         <v>11044</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <v>2.48945762241642</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="1">
         <v>0.35880992272123802</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>340</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>1.42258362547383E-2</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" t="s">
         <v>341</v>
       </c>
       <c r="G98">
@@ -6497,30 +6489,30 @@
       <c r="I98">
         <v>11044</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <v>16.1461988304093</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="1">
         <v>0.80745735675101404</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>346</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>1.49529140139076E-2</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" t="s">
         <v>347</v>
       </c>
       <c r="G99">
@@ -6532,30 +6524,30 @@
       <c r="I99">
         <v>11044</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <v>7.5747599451303103</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="1">
         <v>0.80745735675101404</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>267</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>383</v>
       </c>
       <c r="C100">
         <v>17</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>23.287671232876701</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>2.7874543488971899E-2</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" t="s">
         <v>384</v>
       </c>
       <c r="G100">
@@ -6567,30 +6559,30 @@
       <c r="I100">
         <v>11044</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <v>1.69270438890692</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>267</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>385</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>2.7875478363032301E-2</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" t="s">
         <v>386</v>
       </c>
       <c r="G101">
@@ -6602,30 +6594,30 @@
       <c r="I101">
         <v>11044</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <v>5.9713436063801</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>267</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>393</v>
       </c>
       <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>3.0414243913475102E-2</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" t="s">
         <v>394</v>
       </c>
       <c r="G102">
@@ -6637,30 +6629,30 @@
       <c r="I102">
         <v>11044</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <v>4.1400509821562403</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>267</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>456</v>
       </c>
       <c r="C103">
         <v>5</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>5.4773701152843898E-2</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" t="s">
         <v>457</v>
       </c>
       <c r="G103">
@@ -6672,30 +6664,30 @@
       <c r="I103">
         <v>11044</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <v>3.42004211569428</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>267</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>470</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>6.06537050746516E-2</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" t="s">
         <v>471</v>
       </c>
       <c r="G104">
@@ -6707,30 +6699,30 @@
       <c r="I104">
         <v>11044</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <v>31.4643874643874</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>267</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>480</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>6.5166927231963795E-2</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" t="s">
         <v>481</v>
       </c>
       <c r="G105">
@@ -6742,30 +6734,30 @@
       <c r="I105">
         <v>11044</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <v>29.216931216931201</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>267</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>482</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>6.5166927231963795E-2</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" t="s">
         <v>481</v>
       </c>
       <c r="G106">
@@ -6777,30 +6769,30 @@
       <c r="I106">
         <v>11044</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <v>29.216931216931201</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>267</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>498</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <v>8.0255045119755203E-2</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" t="s">
         <v>499</v>
       </c>
       <c r="G107">
@@ -6812,30 +6804,30 @@
       <c r="I107">
         <v>11044</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <v>6.2607709750566798</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>505</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>8.3008025499031704E-2</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" t="s">
         <v>506</v>
       </c>
       <c r="G108">
@@ -6847,30 +6839,30 @@
       <c r="I108">
         <v>11044</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <v>22.724279835390899</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>267</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>516</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <v>8.74158410848377E-2</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" t="s">
         <v>481</v>
       </c>
       <c r="G109">
@@ -6882,30 +6874,30 @@
       <c r="I109">
         <v>11044</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <v>21.528265107212398</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>267</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>523</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>9.1802866972536201E-2</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" t="s">
         <v>481</v>
       </c>
       <c r="G110">
@@ -6917,30 +6909,30 @@
       <c r="I110">
         <v>11044</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <v>20.451851851851799</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>267</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>524</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>9.1802866972536201E-2</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" t="s">
         <v>481</v>
       </c>
       <c r="G111">
@@ -6952,30 +6944,30 @@
       <c r="I111">
         <v>11044</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <v>20.451851851851799</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>267</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>525</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>9.1802866972536201E-2</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" t="s">
         <v>481</v>
       </c>
       <c r="G112">
@@ -6987,30 +6979,30 @@
       <c r="I112">
         <v>11044</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <v>20.451851851851799</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>267</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>534</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>9.6169199343896603E-2</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" t="s">
         <v>535</v>
       </c>
       <c r="G113">
@@ -7022,30 +7014,30 @@
       <c r="I113">
         <v>11044</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <v>19.477954144620799</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>345</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>1.48855385583144E-2</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" t="s">
         <v>317</v>
       </c>
       <c r="G114">
@@ -7057,30 +7049,30 @@
       <c r="I114">
         <v>10690</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <v>130.365853658536</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="1">
         <v>0.818704620707294</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>344</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>542</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>9.9765827102862095E-2</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" t="s">
         <v>510</v>
       </c>
       <c r="G115">
@@ -7092,30 +7084,30 @@
       <c r="I115">
         <v>10690</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <v>18.6236933797909</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>270</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>271</v>
       </c>
       <c r="C116">
         <v>5</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <v>5.6930564487786398E-4</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" t="s">
         <v>272</v>
       </c>
       <c r="G116">
@@ -7127,30 +7119,30 @@
       <c r="I116">
         <v>11447</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <v>12.718888888888801</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="1">
         <v>2.7895976599015299E-2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>270</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>367</v>
       </c>
       <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <v>2.25693199814893E-2</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" t="s">
         <v>368</v>
       </c>
       <c r="G117">
@@ -7162,30 +7154,30 @@
       <c r="I117">
         <v>11447</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <v>3.59968553459119</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="1">
         <v>0.55294833954648903</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>270</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>495</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <v>7.7756736104262605E-2</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" t="s">
         <v>317</v>
       </c>
       <c r="G118">
@@ -7197,30 +7189,30 @@
       <c r="I118">
         <v>11447</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <v>24.226455026455</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>262</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>263</v>
       </c>
       <c r="C119">
         <v>9</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>12.3287671232876</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <v>2.3452196101211601E-4</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" t="s">
         <v>264</v>
       </c>
       <c r="G119">
@@ -7232,30 +7224,30 @@
       <c r="I119">
         <v>17910</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="2">
         <v>5.3816105769230704</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="1">
         <v>6.0975709863150297E-3</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>283</v>
       </c>
       <c r="C120">
         <v>19</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>26.027397260273901</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <v>1.66195318236267E-3</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" t="s">
         <v>284</v>
       </c>
       <c r="G120">
@@ -7267,30 +7259,30 @@
       <c r="I120">
         <v>17910</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="2">
         <v>2.1739880404783798</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="1">
         <v>2.16053913707147E-2</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>306</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <v>4.3822727673488897E-3</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" t="s">
         <v>307</v>
       </c>
       <c r="G121">
@@ -7302,30 +7294,30 @@
       <c r="I121">
         <v>17910</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <v>29.849999999999898</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="1">
         <v>3.7979697317023699E-2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>452</v>
       </c>
       <c r="C122">
         <v>7</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>9.5890410958904102</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>5.4003180498983901E-2</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" t="s">
         <v>453</v>
       </c>
       <c r="G122">
@@ -7337,30 +7329,30 @@
       <c r="I122">
         <v>17910</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="2">
         <v>2.5419708029197001</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="1">
         <v>0.35102067324339498</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>262</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>490</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>7.2728400216251501E-2</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" t="s">
         <v>317</v>
       </c>
       <c r="G123">
@@ -7372,30 +7364,30 @@
       <c r="I123">
         <v>17910</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="2">
         <v>26.184210526315699</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="1">
         <v>0.364771971926586</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>262</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>529</v>
       </c>
       <c r="C124">
         <v>40</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="2">
         <v>54.794520547945197</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <v>9.5614440039041307E-2</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" t="s">
         <v>530</v>
       </c>
       <c r="G124">
@@ -7407,30 +7399,30 @@
       <c r="I124">
         <v>17910</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="2">
         <v>1.1947646493755999</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="1">
         <v>0.364771971926586</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>262</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>536</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>9.8207838595619296E-2</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" t="s">
         <v>537</v>
       </c>
       <c r="G125">
@@ -7442,30 +7434,30 @@
       <c r="I125">
         <v>17910</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="2">
         <v>3.5791366906474802</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="1">
         <v>0.364771971926586</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>285</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>286</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>1.9855294664722798E-3</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" t="s">
         <v>287</v>
       </c>
       <c r="G126">
@@ -7477,30 +7469,30 @@
       <c r="I126">
         <v>4749</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="2">
         <v>14.9339622641509</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="1">
         <v>3.9710589329445697E-2</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>285</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>472</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>6.123833923482E-2</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" t="s">
         <v>473</v>
       </c>
       <c r="G127">
@@ -7512,30 +7504,30 @@
       <c r="I127">
         <v>4749</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="2">
         <v>30.442307692307601</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="1">
         <v>0.61238339234820005</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>276</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>277</v>
       </c>
       <c r="C128">
         <v>32</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>43.835616438356098</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>8.4389033774245599E-4</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" t="s">
         <v>278</v>
       </c>
       <c r="G128">
@@ -7547,30 +7539,30 @@
       <c r="I128">
         <v>14600</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="2">
         <v>1.6808415720473699</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="1">
         <v>1.51900260793642E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>440</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="2">
         <v>8.2191780821917799</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>4.82298633157189E-2</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" t="s">
         <v>441</v>
       </c>
       <c r="G129">
@@ -7582,30 +7574,30 @@
       <c r="I129">
         <v>14600</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="2">
         <v>2.9711029711029702</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="1">
         <v>0.43124638124593601</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>276</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>512</v>
       </c>
       <c r="C130">
         <v>32</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="2">
         <v>43.835616438356098</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>8.6491617289179298E-2</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" t="s">
         <v>513</v>
       </c>
       <c r="G130">
@@ -7617,30 +7609,30 @@
       <c r="I130">
         <v>14600</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="2">
         <v>1.24867368511079</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="1">
         <v>0.43124638124593601</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>276</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>533</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>9.5832529165763694E-2</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" t="s">
         <v>467</v>
       </c>
       <c r="G131">
@@ -7652,30 +7644,30 @@
       <c r="I131">
         <v>14600</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="2">
         <v>3.6069421283429</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="1">
         <v>0.43124638124593601</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>355</v>
       </c>
       <c r="C132">
         <v>9</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="2">
         <v>12.3287671232876</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>1.7549902513846E-2</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" t="s">
         <v>356</v>
       </c>
       <c r="G132">
@@ -7687,30 +7679,30 @@
       <c r="I132">
         <v>6921</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="2">
         <v>2.4622104514190801</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="1">
         <v>0.17731219385223701</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>354</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>379</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>2.7278799054190402E-2</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" t="s">
         <v>380</v>
       </c>
       <c r="G133">
@@ -7722,30 +7714,30 @@
       <c r="I133">
         <v>6921</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133" s="2">
         <v>5.8184110970996201</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="1">
         <v>0.17731219385223701</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>308</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>309</v>
       </c>
       <c r="C134">
         <v>5</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>4.8514952094930001E-3</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" t="s">
         <v>310</v>
       </c>
       <c r="G134">
@@ -7757,30 +7749,30 @@
       <c r="I134">
         <v>11872</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="2">
         <v>7.0793082886106102</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="1">
         <v>0.20376279879870601</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>308</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>377</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>2.6713796746022901E-2</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" t="s">
         <v>378</v>
       </c>
       <c r="G135">
@@ -7792,30 +7784,30 @@
       <c r="I135">
         <v>11872</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="2">
         <v>11.503875968992199</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="1">
         <v>0.50155599084619096</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>308</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>426</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>4.5199173991865703E-2</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" t="s">
         <v>427</v>
       </c>
       <c r="G136">
@@ -7827,30 +7819,30 @@
       <c r="I136">
         <v>11872</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="2">
         <v>8.6279069767441801</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="1">
         <v>0.50155599084619096</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>308</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>434</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>4.7767237223446703E-2</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" t="s">
         <v>435</v>
       </c>
       <c r="G137">
@@ -7862,30 +7854,30 @@
       <c r="I137">
         <v>11872</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="2">
         <v>8.3664552501761804</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="1">
         <v>0.50155599084619096</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>308</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>476</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>6.2318551848146997E-2</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" t="s">
         <v>435</v>
       </c>
       <c r="G138">
@@ -7897,30 +7889,30 @@
       <c r="I138">
         <v>11872</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138" s="2">
         <v>7.2024266936299197</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="1">
         <v>0.523475835524435</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>292</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>293</v>
       </c>
       <c r="C139">
         <v>33</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="2">
         <v>45.205479452054703</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>2.7127662366451801E-3</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" t="s">
         <v>294</v>
       </c>
       <c r="G139">
@@ -7932,30 +7924,30 @@
       <c r="I139">
         <v>14237</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139" s="2">
         <v>1.55331726525227</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="1">
         <v>4.6117026022968098E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>350</v>
       </c>
       <c r="C140">
         <v>26</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>35.616438356164302</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>1.68322599816822E-2</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" t="s">
         <v>351</v>
       </c>
       <c r="G140">
@@ -7967,30 +7959,30 @@
       <c r="I140">
         <v>14237</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140" s="2">
         <v>1.51823961281325</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="1">
         <v>0.143074209844298</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>292</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>422</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="2">
         <v>6.8493150684931496</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>4.2846806190013298E-2</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" t="s">
         <v>423</v>
       </c>
       <c r="G141">
@@ -8002,30 +7994,30 @@
       <c r="I141">
         <v>14237</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141" s="2">
         <v>3.7291110063387198</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="1">
         <v>0.24279856841007499</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>292</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>486</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>6.7964832665069003E-2</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" t="s">
         <v>487</v>
       </c>
       <c r="G142">
@@ -8037,30 +8029,30 @@
       <c r="I142">
         <v>14237</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="2">
         <v>6.9178814382895997</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="1">
         <v>0.248301723597807</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>292</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>491</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>7.4097091759147402E-2</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" t="s">
         <v>492</v>
       </c>
       <c r="G143">
@@ -8072,30 +8064,30 @@
       <c r="I143">
         <v>14237</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143" s="2">
         <v>6.5820619509939897</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="1">
         <v>0.248301723597807</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>517</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>8.76359024462849E-2</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" t="s">
         <v>481</v>
       </c>
       <c r="G144">
@@ -8107,30 +8099,30 @@
       <c r="I144">
         <v>14237</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144" s="2">
         <v>21.522297808011999</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="1">
         <v>0.248301723597807</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>259</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>260</v>
       </c>
       <c r="C145">
         <v>30</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>41.095890410958901</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>1.79084405868751E-4</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" t="s">
         <v>261</v>
       </c>
       <c r="G145">
@@ -8142,30 +8134,30 @@
       <c r="I145">
         <v>20562</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145" s="2">
         <v>1.9374717322478501</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="1">
         <v>9.1512131398931801E-2</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>259</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>288</v>
       </c>
       <c r="C146">
         <v>25</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>34.246575342465697</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>2.0258882552206198E-3</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" t="s">
         <v>289</v>
       </c>
       <c r="G146">
@@ -8177,30 +8169,30 @@
       <c r="I146">
         <v>20562</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146" s="2">
         <v>1.8391507813841601</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>259</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>313</v>
       </c>
       <c r="C147">
         <v>30</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="2">
         <v>41.095890410958901</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <v>6.0359468133403503E-3</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" t="s">
         <v>314</v>
       </c>
       <c r="G147">
@@ -8212,30 +8204,30 @@
       <c r="I147">
         <v>20562</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147" s="2">
         <v>1.5705774518790101</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>259</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>316</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" t="s">
         <v>317</v>
       </c>
       <c r="G148">
@@ -8247,30 +8239,30 @@
       <c r="I148">
         <v>20562</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>259</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>318</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" t="s">
         <v>317</v>
       </c>
       <c r="G149">
@@ -8282,30 +8274,30 @@
       <c r="I149">
         <v>20562</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>259</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>319</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" t="s">
         <v>317</v>
       </c>
       <c r="G150">
@@ -8317,30 +8309,30 @@
       <c r="I150">
         <v>20562</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>259</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>320</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" t="s">
         <v>317</v>
       </c>
       <c r="G151">
@@ -8352,30 +8344,30 @@
       <c r="I151">
         <v>20562</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>259</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>321</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" t="s">
         <v>317</v>
       </c>
       <c r="G152">
@@ -8387,30 +8379,30 @@
       <c r="I152">
         <v>20562</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>259</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>322</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" t="s">
         <v>317</v>
       </c>
       <c r="G153">
@@ -8422,30 +8414,30 @@
       <c r="I153">
         <v>20562</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>259</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>323</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" t="s">
         <v>317</v>
       </c>
       <c r="G154">
@@ -8457,30 +8449,30 @@
       <c r="I154">
         <v>20562</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>259</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>324</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>6.8941873473418996E-3</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" t="s">
         <v>317</v>
       </c>
       <c r="G155">
@@ -8492,30 +8484,30 @@
       <c r="I155">
         <v>20562</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155" s="2">
         <v>285.58333333333297</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="1">
         <v>0.32026633949924599</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>259</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>369</v>
       </c>
       <c r="C156">
         <v>18</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="2">
         <v>24.657534246575299</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>2.29560178422555E-2</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" t="s">
         <v>370</v>
       </c>
       <c r="G156">
@@ -8527,30 +8519,30 @@
       <c r="I156">
         <v>20562</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156" s="2">
         <v>1.7261584956346501</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="1">
         <v>0.961924732103006</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>259</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>375</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>2.5485594165848401E-2</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" t="s">
         <v>376</v>
       </c>
       <c r="G157">
@@ -8562,30 +8554,30 @@
       <c r="I157">
         <v>20562</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="2">
         <v>6.2422586520947103</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="1">
         <v>0.961924732103006</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>259</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>381</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>2.72968139108784E-2</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" t="s">
         <v>382</v>
       </c>
       <c r="G158">
@@ -8597,30 +8589,30 @@
       <c r="I158">
         <v>20562</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="2">
         <v>71.3958333333333</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="1">
         <v>0.961924732103006</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>259</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>387</v>
       </c>
       <c r="C159">
         <v>7</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="2">
         <v>9.5890410958904102</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>2.82365381243543E-2</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" t="s">
         <v>388</v>
       </c>
       <c r="G159">
@@ -8632,30 +8624,30 @@
       <c r="I159">
         <v>20562</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="2">
         <v>2.9792598112270201</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="1">
         <v>0.961924732103006</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>259</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>395</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>3.0656837565500299E-2</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" t="s">
         <v>396</v>
       </c>
       <c r="G160">
@@ -8667,30 +8659,30 @@
       <c r="I160">
         <v>20562</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="2">
         <v>63.462962962962898</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="1">
         <v>0.97910274974816802</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>259</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>462</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="2">
         <v>2.7397260273972601</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>5.7128266188418701E-2</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" t="s">
         <v>463</v>
       </c>
       <c r="G161">
@@ -8702,30 +8694,30 @@
       <c r="I161">
         <v>20562</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161" s="2">
         <v>33.5980392156862</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>259</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>503</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="2">
         <v>5.4794520547945202</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>8.2745461675403795E-2</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" t="s">
         <v>504</v>
       </c>
       <c r="G162">
@@ -8737,30 +8729,30 @@
       <c r="I162">
         <v>20562</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162" s="2">
         <v>3.8592342342342301</v>
       </c>
-      <c r="K162" s="2">
+      <c r="K162" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>273</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>274</v>
       </c>
       <c r="C163">
         <v>7</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="2">
         <v>9.5890410958904102</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>6.7900838359910196E-4</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" t="s">
         <v>275</v>
       </c>
       <c r="G163">
@@ -8772,30 +8764,30 @@
       <c r="I163">
         <v>8414</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163" s="2">
         <v>6.2831235331768696</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="1">
         <v>7.8085964113896802E-2</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>273</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>389</v>
       </c>
       <c r="C164">
         <v>3</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>2.8546853314160299E-2</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" t="s">
         <v>390</v>
       </c>
       <c r="G164">
@@ -8807,30 +8799,30 @@
       <c r="I164">
         <v>8414</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164" s="2">
         <v>11.075910487055699</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>273</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>432</v>
       </c>
       <c r="C165">
         <v>3</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="2">
         <v>4.10958904109589</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>4.7449095149239298E-2</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" t="s">
         <v>433</v>
       </c>
       <c r="G165">
@@ -8842,23 +8834,54 @@
       <c r="I165">
         <v>8414</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165" s="2">
         <v>8.3860465116278995</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:K165">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$K2&lt;=0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D165">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{063287AB-37EE-4411-83B5-3C27581CF450}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{063287AB-37EE-4411-83B5-3C27581CF450}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D165</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
